--- a/docassemble/MAEvictionDefense/data/sources/eviction_pt.xlsx
+++ b/docassemble/MAEvictionDefense/data/sources/eviction_pt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QSteenhuis\Google Drive\eviction-interview\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5188" uniqueCount="2248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="2247">
   <si>
     <t>interview</t>
   </si>
@@ -25159,577 +25159,6 @@
   </si>
   <si>
     <t>aquecimento insuficiente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ótimo trabalho! Agora você precisa imprimir, entregar e ir ao tribunal.
-&lt;div class="custom-counter"&gt;
-&lt;ol class="custom-counter"&gt;
-&lt;li&gt;
-  Baixe e imprima três cópias do </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:file-pdf:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PDF abaixo. Nós criamos </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${nice_number(num_downloads)}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> formulários, combinados em um PDF: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${comma_and_list(download_titles)}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-&lt;/li&gt;
-&lt;li&gt; 
-  Entregue uma cópia para o
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${("landlord's attorney, " + landlords_attorney.name.text) if landlord.has_attorney else ('landlord, ' + landlord.name.text) }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 
-   em </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${landlords_attorney.address.on_one_line() if landlord.has_attorney else 'their address' }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 
-   até </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${format_date(case.answer_date)}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Entregue uma segundo cópia para </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ court }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Guarde 
-  uma cópia para si.
-&lt;/li&gt;
-&lt;li&gt;
-Seu(ua) locador(a) deve fornecer {discovery} até </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${date_discovery_due}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Apresente uma  
-{motion to compel discovery} se necessário em </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${date_motion_to_compel_due}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if remind_user and not didnt_provide_contact_info:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-(enviaremos um lembrete).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-&lt;b&gt;Prepare-se para o tribunal e compareça no dia </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${court_date}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.&lt;/b&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if court_date_is_holiday:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${court_date}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> é um feriado (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${court_date_holiday}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">), então pergunte ao tribunal 
-para quando seu caso será adiado.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;/ol&gt;
-&lt;/div&gt;
-### Seus Formulários (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${comma_and_list(download_titles)}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-&lt;ul style="list-style-type:none"&gt;
-&lt;li&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[^^file-pdf^^ Forms to print and file today]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${downloads_concat.url_for()}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% if not remind_user or didnt_provide_contact_info:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;li&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[^^file-pdf^^ Motion to Compel Discovery (save this until after ${date_discovery_due})]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${compel_discovery_with_instructions.pdf.url_for()}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)&lt;/li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;li&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[^^file-archive^^ **Optional**: Download a copy in Microsoft Word format to edit]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${downloads_zip.url_for()}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-    </r>
   </si>
   <si>
     <t>9639fdd75611ded97d67aadf59444dbd</t>
@@ -26476,10 +25905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H741"/>
+  <dimension ref="A1:H740"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="H189" sqref="H189"/>
+    <sheetView tabSelected="1" topLeftCell="A708" workbookViewId="0">
+      <selection activeCell="A714" sqref="A714:XFD714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31401,7 +30830,7 @@
         <v>589</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -45028,18 +44457,18 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="2" t="s">
         <v>297</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>572</v>
+        <v>1375</v>
       </c>
       <c r="C714" s="2">
-        <v>3005</v>
+        <v>2008</v>
       </c>
       <c r="D714" s="2" t="s">
-        <v>588</v>
+        <v>2166</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>11</v>
@@ -45048,10 +44477,10 @@
         <v>12</v>
       </c>
       <c r="G714" s="3" t="s">
-        <v>589</v>
+        <v>2167</v>
       </c>
       <c r="H714" s="4" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
@@ -45059,65 +44488,65 @@
         <v>297</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1375</v>
+        <v>1587</v>
       </c>
       <c r="C715" s="2">
+        <v>2007</v>
+      </c>
+      <c r="D715" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E715" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G715" s="3" t="s">
+        <v>2170</v>
+      </c>
+      <c r="H715" s="4" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C716" s="2">
+        <v>3003</v>
+      </c>
+      <c r="D716" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E716" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G716" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H716" s="4" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C717" s="2">
         <v>2008</v>
       </c>
-      <c r="D715" s="2" t="s">
-        <v>2167</v>
-      </c>
-      <c r="E715" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F715" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G715" s="3" t="s">
-        <v>2168</v>
-      </c>
-      <c r="H715" s="4" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A716" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B716" s="2" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C716" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D716" s="2" t="s">
-        <v>2170</v>
-      </c>
-      <c r="E716" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F716" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G716" s="3" t="s">
-        <v>2171</v>
-      </c>
-      <c r="H716" s="4" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="717" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B717" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C717" s="2">
-        <v>3003</v>
-      </c>
       <c r="D717" s="2" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="E717" s="2" t="s">
         <v>11</v>
@@ -45126,10 +44555,10 @@
         <v>12</v>
       </c>
       <c r="G717" s="3" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="H717" s="4" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
@@ -45137,13 +44566,13 @@
         <v>297</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1055</v>
+        <v>1375</v>
       </c>
       <c r="C718" s="2">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="E718" s="2" t="s">
         <v>11</v>
@@ -45152,10 +44581,10 @@
         <v>12</v>
       </c>
       <c r="G718" s="3" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="H718" s="4" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
@@ -45163,13 +44592,13 @@
         <v>297</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1375</v>
+        <v>1055</v>
       </c>
       <c r="C719" s="2">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="E719" s="2" t="s">
         <v>11</v>
@@ -45178,10 +44607,10 @@
         <v>12</v>
       </c>
       <c r="G719" s="3" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="H719" s="4" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -45189,13 +44618,13 @@
         <v>297</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1055</v>
+        <v>1375</v>
       </c>
       <c r="C720" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="D720" s="2" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="E720" s="2" t="s">
         <v>11</v>
@@ -45204,10 +44633,10 @@
         <v>12</v>
       </c>
       <c r="G720" s="3" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="H720" s="4" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
@@ -45215,13 +44644,13 @@
         <v>297</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1375</v>
+        <v>1143</v>
       </c>
       <c r="C721" s="2">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="D721" s="2" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="E721" s="2" t="s">
         <v>11</v>
@@ -45230,10 +44659,10 @@
         <v>12</v>
       </c>
       <c r="G721" s="3" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="H721" s="4" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -45241,13 +44670,13 @@
         <v>297</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1143</v>
+        <v>1212</v>
       </c>
       <c r="C722" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="E722" s="2" t="s">
         <v>11</v>
@@ -45256,10 +44685,10 @@
         <v>12</v>
       </c>
       <c r="G722" s="3" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="H722" s="4" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -45267,13 +44696,13 @@
         <v>297</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1212</v>
+        <v>1143</v>
       </c>
       <c r="C723" s="2">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="E723" s="2" t="s">
         <v>11</v>
@@ -45282,10 +44711,10 @@
         <v>12</v>
       </c>
       <c r="G723" s="3" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="H723" s="4" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -45293,13 +44722,13 @@
         <v>297</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1143</v>
+        <v>1375</v>
       </c>
       <c r="C724" s="2">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="E724" s="2" t="s">
         <v>11</v>
@@ -45308,10 +44737,10 @@
         <v>12</v>
       </c>
       <c r="G724" s="3" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="H724" s="4" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -45319,13 +44748,13 @@
         <v>297</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1375</v>
+        <v>1143</v>
       </c>
       <c r="C725" s="2">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="D725" s="2" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="E725" s="2" t="s">
         <v>11</v>
@@ -45334,10 +44763,10 @@
         <v>12</v>
       </c>
       <c r="G725" s="3" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="H725" s="4" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
@@ -45345,13 +44774,13 @@
         <v>297</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1143</v>
+        <v>1375</v>
       </c>
       <c r="C726" s="2">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="D726" s="2" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="E726" s="2" t="s">
         <v>11</v>
@@ -45360,10 +44789,10 @@
         <v>12</v>
       </c>
       <c r="G726" s="3" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="H726" s="4" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
@@ -45374,10 +44803,10 @@
         <v>1375</v>
       </c>
       <c r="C727" s="2">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>11</v>
@@ -45386,10 +44815,10 @@
         <v>12</v>
       </c>
       <c r="G727" s="3" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="H727" s="4" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
@@ -45397,13 +44826,13 @@
         <v>297</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1375</v>
+        <v>668</v>
       </c>
       <c r="C728" s="2">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>11</v>
@@ -45412,10 +44841,10 @@
         <v>12</v>
       </c>
       <c r="G728" s="3" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="H728" s="4" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
@@ -45423,13 +44852,13 @@
         <v>297</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>668</v>
+        <v>1587</v>
       </c>
       <c r="C729" s="2">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="E729" s="2" t="s">
         <v>11</v>
@@ -45438,10 +44867,10 @@
         <v>12</v>
       </c>
       <c r="G729" s="3" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="H729" s="4" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
@@ -45449,13 +44878,13 @@
         <v>297</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1587</v>
+        <v>1055</v>
       </c>
       <c r="C730" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="E730" s="2" t="s">
         <v>11</v>
@@ -45464,10 +44893,10 @@
         <v>12</v>
       </c>
       <c r="G730" s="3" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="H730" s="4" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
@@ -45475,13 +44904,13 @@
         <v>297</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1055</v>
+        <v>1375</v>
       </c>
       <c r="C731" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="E731" s="2" t="s">
         <v>11</v>
@@ -45490,10 +44919,10 @@
         <v>12</v>
       </c>
       <c r="G731" s="3" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="H731" s="4" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
@@ -45504,10 +44933,10 @@
         <v>1375</v>
       </c>
       <c r="C732" s="2">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="D732" s="2" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="E732" s="2" t="s">
         <v>11</v>
@@ -45516,10 +44945,10 @@
         <v>12</v>
       </c>
       <c r="G732" s="3" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="H732" s="4" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
@@ -45527,13 +44956,13 @@
         <v>297</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1375</v>
+        <v>345</v>
       </c>
       <c r="C733" s="2">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="E733" s="2" t="s">
         <v>11</v>
@@ -45542,10 +44971,10 @@
         <v>12</v>
       </c>
       <c r="G733" s="3" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="H733" s="4" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -45553,13 +44982,13 @@
         <v>297</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>345</v>
+        <v>1375</v>
       </c>
       <c r="C734" s="2">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="E734" s="2" t="s">
         <v>11</v>
@@ -45568,10 +44997,10 @@
         <v>12</v>
       </c>
       <c r="G734" s="3" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="H734" s="4" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
@@ -45579,13 +45008,13 @@
         <v>297</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1375</v>
+        <v>2228</v>
       </c>
       <c r="C735" s="2">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D735" s="2" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="E735" s="2" t="s">
         <v>11</v>
@@ -45594,10 +45023,10 @@
         <v>12</v>
       </c>
       <c r="G735" s="3" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="H735" s="4" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
@@ -45605,13 +45034,13 @@
         <v>297</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>2229</v>
+        <v>496</v>
       </c>
       <c r="C736" s="2">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="D736" s="2" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="E736" s="2" t="s">
         <v>11</v>
@@ -45620,10 +45049,10 @@
         <v>12</v>
       </c>
       <c r="G736" s="3" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="H736" s="4" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -45631,13 +45060,13 @@
         <v>297</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>496</v>
+        <v>1143</v>
       </c>
       <c r="C737" s="2">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="D737" s="2" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="E737" s="2" t="s">
         <v>11</v>
@@ -45646,10 +45075,10 @@
         <v>12</v>
       </c>
       <c r="G737" s="3" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="H737" s="4" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
@@ -45660,10 +45089,10 @@
         <v>1143</v>
       </c>
       <c r="C738" s="2">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="E738" s="2" t="s">
         <v>11</v>
@@ -45672,10 +45101,10 @@
         <v>12</v>
       </c>
       <c r="G738" s="3" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="H738" s="4" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
@@ -45683,13 +45112,13 @@
         <v>297</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1143</v>
+        <v>1375</v>
       </c>
       <c r="C739" s="2">
         <v>2013</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="E739" s="2" t="s">
         <v>11</v>
@@ -45698,10 +45127,10 @@
         <v>12</v>
       </c>
       <c r="G739" s="3" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="H739" s="4" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
@@ -45712,10 +45141,10 @@
         <v>1375</v>
       </c>
       <c r="C740" s="2">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="E740" s="2" t="s">
         <v>11</v>
@@ -45724,40 +45153,14 @@
         <v>12</v>
       </c>
       <c r="G740" s="3" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="H740" s="4" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A741" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B741" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C741" s="2">
-        <v>2009</v>
-      </c>
-      <c r="D741" s="2" t="s">
-        <v>2244</v>
-      </c>
-      <c r="E741" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F741" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G741" s="3" t="s">
         <v>2245</v>
       </c>
-      <c r="H741" s="4" t="s">
-        <v>2246</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>